--- a/data/AAclass.xlsx
+++ b/data/AAclass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39320" yWindow="3300" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="14160" yWindow="10660" windowWidth="28240" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -519,28 +519,28 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>6</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -561,13 +561,13 @@
         <v>3</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R2">
         <v>3</v>
